--- a/Lab02/Code/SensorCalibration/SensorData.xlsx
+++ b/Lab02/Code/SensorCalibration/SensorData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adairdg\Documents\Classes\ECE-425-Mobile-Robotics\Lab02\Code\SensorCalibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D988585-CC94-4FF2-85B5-EDE4A96144F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA86C4-4655-4FF3-B362-704D42A6408C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{7B5C36B3-28DB-4FDE-A3F1-AA54B0BA1D69}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Acutal Inches</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>Right Sonar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k= </t>
+  </si>
+  <si>
+    <t>Inches = 1111/(R+20) - 1</t>
+  </si>
+  <si>
+    <t>Inches = 1111/(R+16) - 1</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Inches = 285714/(R-2600) - 92</t>
+  </si>
+  <si>
+    <t>Inches = 285714/(R+2257) - 102</t>
   </si>
 </sst>
 </file>
@@ -160,6 +178,600 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Front IR Linerized</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6775371828521436E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.87755796150481191"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$50:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8823529411764705E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2631578947368418E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A3D-494F-87A7-DEE9CEE071D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="568517152"/>
+        <c:axId val="568517480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="568517152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Range</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568517480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="568517480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>1/(Range</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> + 1)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568517152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -230,16 +842,10 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.5901137357830266E-4"/>
-                  <c:y val="-0.10801946631671042"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -272,138 +878,138 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$22</c:f>
+              <c:f>Sheet1!$A$73:$A$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>530</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>370</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>125</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$22</c:f>
+              <c:f>Sheet1!$B$73:$B$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -411,7 +1017,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7777-4A47-ACC8-51852181C5FE}"/>
+              <c16:uniqueId val="{00000000-970E-4652-99EF-5DD456C77B47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -423,11 +1029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373836776"/>
-        <c:axId val="373838744"/>
+        <c:axId val="457056832"/>
+        <c:axId val="457055520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373836776"/>
+        <c:axId val="457056832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,6 +1053,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -484,12 +1120,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373838744"/>
+        <c:crossAx val="457055520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373838744"/>
+        <c:axId val="457055520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,6 +1145,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -546,7 +1212,1069 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373836776"/>
+        <c:crossAx val="457056832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8556430446194227E-4"/>
+                  <c:y val="-5.7462452610090427E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$96:$A$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$96:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.433962264150943E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3457943925233638E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2592592592592587E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1743119266055051E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0909090909090905E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0090090090090089E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9285714285714281E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8495575221238937E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.771929824561403E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6956521739130436E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6206896551724137E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5470085470085479E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4745762711864406E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.4033613445378148E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3333333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2644628099173556E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1967213114754103E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.130081300813009E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.0645161290322578E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91EE-4B36-AC56-63C740689792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="465013056"/>
+        <c:axId val="465013384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="465013056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465013384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="465013384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465013056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.45195734908136481"/>
+                  <c:y val="-0.19191528142315545"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$119:$A$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$119:$B$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.3157894736842105E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2987012987012988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.282051282051282E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2658227848101266E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2345679012345678E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2195121951219513E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2048192771084338E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1904761904761904E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1764705882352941E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1627906976744186E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1494252873563218E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1363636363636364E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1235955056179775E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.098901098901099E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0869565217391304E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0752688172043012E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0638297872340425E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0526315789473684E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0216-456D-AABB-168D454BF642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="462390608"/>
+        <c:axId val="462383720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="462390608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462383720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462383720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462390608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -635,6 +2363,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1151,27 +2999,1575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66EDE2A-87B3-4C35-919E-609C4C1FBF09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43309E4A-D12F-4D47-8512-6FEBBEC83756}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,6 +4580,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B95B28-93D3-4AAA-9274-F9388AA857EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AD2420-57E2-46BC-B39B-1274D832984E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5B2EEA-A78E-4EF1-8937-3A6E00B7A8D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1489,10 +4993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07996165-70A0-4432-807A-FF459E728AE0}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,30 +5088,42 @@
         <v>530</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f>100*ABS(C3-A3)/A3</f>
+        <v>100</v>
+      </c>
       <c r="E3" s="4">
         <v>525</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>100*ABS(F3-D3)/D3</f>
+        <v>100</v>
+      </c>
       <c r="H3" s="3">
         <v>500</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="J3" s="4">
+        <f>100*ABS(I3-G3)/G3</f>
+        <v>101</v>
+      </c>
       <c r="K3" s="4">
         <v>565</v>
       </c>
       <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="4">
+        <f>100*ABS(L3-J3)/J3</f>
+        <v>99.504950495049499</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -1617,30 +5133,42 @@
         <v>370</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D22" si="0">100*ABS(C4-A4)/A4</f>
+        <v>50</v>
+      </c>
       <c r="E4" s="4">
         <v>345</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G22" si="1">100*ABS(F4-D4)/D4</f>
+        <v>98</v>
+      </c>
       <c r="H4" s="3">
         <v>655</v>
       </c>
       <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4"/>
+        <v>-3</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J22" si="2">100*ABS(I4-G4)/G4</f>
+        <v>103.06122448979592</v>
+      </c>
       <c r="K4" s="4">
         <v>667</v>
       </c>
       <c r="L4" s="3">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M22" si="3">100*ABS(L4-J4)/J4</f>
+        <v>100.97029702970296</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1650,30 +5178,42 @@
         <v>270</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="E5" s="4">
         <v>240</v>
       </c>
       <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
       <c r="H5" s="3">
         <v>600</v>
       </c>
       <c r="I5" s="3">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="2"/>
+        <v>101.06382978723404</v>
+      </c>
       <c r="K5" s="4">
         <v>625</v>
       </c>
       <c r="L5" s="3">
-        <v>3</v>
-      </c>
-      <c r="M5" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>99.505263157894746</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -1683,30 +5223,42 @@
         <v>210</v>
       </c>
       <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="E6" s="4">
         <v>190</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
       <c r="H6" s="3">
         <v>490</v>
       </c>
       <c r="I6" s="3">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>96.590909090909093</v>
+      </c>
       <c r="K6" s="4">
         <v>500</v>
       </c>
       <c r="L6" s="3">
         <v>4</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <f t="shared" si="3"/>
+        <v>95.858823529411765</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -1716,30 +5268,42 @@
         <v>170</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="E7" s="4">
         <v>155</v>
       </c>
       <c r="F7" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
       <c r="H7" s="3">
         <v>405</v>
       </c>
       <c r="I7" s="3">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>91.25</v>
+      </c>
       <c r="K7" s="4">
         <v>415</v>
       </c>
       <c r="L7" s="3">
-        <v>5</v>
-      </c>
-      <c r="M7" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="3"/>
+        <v>93.424657534246577</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -1749,30 +5313,42 @@
         <v>140</v>
       </c>
       <c r="C8" s="3">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
       <c r="E8" s="4">
         <v>135</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
       <c r="H8" s="3">
         <v>350</v>
       </c>
       <c r="I8" s="3">
-        <v>6</v>
-      </c>
-      <c r="J8" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>87.142857142857139</v>
+      </c>
       <c r="K8" s="4">
         <v>340</v>
       </c>
       <c r="L8" s="3">
-        <v>6</v>
-      </c>
-      <c r="M8" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="3"/>
+        <v>90.819672131147541</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1782,30 +5358,42 @@
         <v>125</v>
       </c>
       <c r="C9" s="3">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>14.285714285714286</v>
+      </c>
       <c r="E9" s="4">
         <v>110</v>
       </c>
       <c r="F9" s="3">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>54.500000000000007</v>
+      </c>
       <c r="H9" s="3">
         <v>305</v>
       </c>
       <c r="I9" s="3">
-        <v>7</v>
-      </c>
-      <c r="J9" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>81.651376146788991</v>
+      </c>
       <c r="K9" s="4">
         <v>305</v>
       </c>
       <c r="L9" s="3">
-        <v>7</v>
-      </c>
-      <c r="M9" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="3"/>
+        <v>88.977528089887642</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -1815,30 +5403,42 @@
         <v>110</v>
       </c>
       <c r="C10" s="3">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
       <c r="E10" s="4">
         <v>95</v>
       </c>
       <c r="F10" s="3">
-        <v>8</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="H10" s="3">
         <v>275</v>
       </c>
       <c r="I10" s="3">
-        <v>8</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>81.666666666666671</v>
+      </c>
       <c r="K10" s="4">
         <v>275</v>
       </c>
       <c r="L10" s="3">
-        <v>8</v>
-      </c>
-      <c r="M10" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="3"/>
+        <v>87.755102040816325</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -1848,30 +5448,42 @@
         <v>95</v>
       </c>
       <c r="C11" s="3">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
       <c r="E11" s="4">
         <v>80</v>
       </c>
       <c r="F11" s="3">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>8.5</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="H11" s="3">
         <v>250</v>
       </c>
       <c r="I11" s="3">
-        <v>9</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>75.510204081632651</v>
+      </c>
       <c r="K11" s="4">
         <v>245</v>
       </c>
       <c r="L11" s="3">
-        <v>9</v>
-      </c>
-      <c r="M11" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="3"/>
+        <v>85.432432432432435</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -1881,30 +5493,42 @@
         <v>80</v>
       </c>
       <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>80</v>
       </c>
       <c r="F12" s="3">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G12" s="4"/>
       <c r="H12" s="3">
         <v>235</v>
       </c>
       <c r="I12" s="3">
-        <v>10</v>
-      </c>
-      <c r="J12" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
       <c r="K12" s="4">
         <v>225</v>
       </c>
       <c r="L12" s="3">
-        <v>10</v>
-      </c>
-      <c r="M12" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -1914,30 +5538,42 @@
         <v>75</v>
       </c>
       <c r="C13" s="3">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>9.5</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>13.636363636363637</v>
+      </c>
       <c r="E13" s="4">
         <v>70</v>
       </c>
       <c r="F13" s="3">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>26.666666666666668</v>
+      </c>
       <c r="H13" s="3">
         <v>215</v>
       </c>
       <c r="I13" s="3">
-        <v>11</v>
-      </c>
-      <c r="J13" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>47.5</v>
+      </c>
       <c r="K13" s="4">
         <v>205</v>
       </c>
       <c r="L13" s="3">
-        <v>11</v>
-      </c>
-      <c r="M13" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="3"/>
+        <v>74.736842105263165</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -1947,30 +5583,42 @@
         <v>70</v>
       </c>
       <c r="C14" s="3">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
       <c r="E14" s="4">
         <v>65</v>
       </c>
       <c r="F14" s="3">
         <v>12</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>28.000000000000007</v>
+      </c>
       <c r="H14" s="3">
         <v>205</v>
       </c>
       <c r="I14" s="3">
-        <v>12</v>
-      </c>
-      <c r="J14" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>50.000000000000014</v>
+      </c>
       <c r="K14" s="4">
         <v>190</v>
       </c>
       <c r="L14" s="3">
-        <v>12</v>
-      </c>
-      <c r="M14" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -1980,30 +5628,42 @@
         <v>60</v>
       </c>
       <c r="C15" s="3">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>15.384615384615385</v>
+      </c>
       <c r="E15" s="4">
         <v>50</v>
       </c>
       <c r="F15" s="3">
-        <v>13</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>22.000000000000004</v>
+      </c>
       <c r="H15" s="3">
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>13</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>31.818181818181827</v>
+      </c>
       <c r="K15" s="4">
         <v>180</v>
       </c>
       <c r="L15" s="3">
         <v>13</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <f t="shared" si="3"/>
+        <v>59.142857142857153</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -2013,30 +5673,42 @@
         <v>50</v>
       </c>
       <c r="C16" s="3">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>14.285714285714286</v>
+      </c>
       <c r="E16" s="4">
         <v>60</v>
       </c>
       <c r="F16" s="3">
-        <v>14</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000036</v>
+      </c>
       <c r="H16" s="3">
         <v>190</v>
       </c>
       <c r="I16" s="3">
-        <v>14</v>
-      </c>
-      <c r="J16" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>66.6666666666666</v>
+      </c>
       <c r="K16" s="4">
         <v>170</v>
       </c>
       <c r="L16" s="3">
-        <v>14</v>
-      </c>
-      <c r="M16" s="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="3"/>
+        <v>79.749999999999972</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -2046,30 +5718,42 @@
         <v>50</v>
       </c>
       <c r="C17" s="3">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="E17" s="4">
         <v>45</v>
       </c>
       <c r="F17" s="3">
-        <v>15</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="H17" s="3">
         <v>185</v>
       </c>
       <c r="I17" s="3">
         <v>15</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>57.142857142857146</v>
+      </c>
       <c r="K17" s="4">
         <v>160</v>
       </c>
       <c r="L17" s="3">
-        <v>15</v>
-      </c>
-      <c r="M17" s="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="3"/>
+        <v>76.375</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -2079,30 +5763,42 @@
         <v>50</v>
       </c>
       <c r="C18" s="3">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
       <c r="E18" s="4">
         <v>45</v>
       </c>
       <c r="F18" s="3">
-        <v>16</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="H18" s="3">
         <v>180</v>
       </c>
       <c r="I18" s="3">
         <v>16</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="K18" s="4">
         <v>150</v>
       </c>
       <c r="L18" s="3">
-        <v>16</v>
-      </c>
-      <c r="M18" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -2112,30 +5808,42 @@
         <v>50</v>
       </c>
       <c r="C19" s="3">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>17.647058823529413</v>
+      </c>
       <c r="E19" s="4">
         <v>40</v>
       </c>
       <c r="F19" s="3">
-        <v>17</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>17.833333333333339</v>
+      </c>
       <c r="H19" s="3">
         <v>175</v>
       </c>
       <c r="I19" s="3">
-        <v>17</v>
-      </c>
-      <c r="J19" s="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>7.4766355140187235</v>
+      </c>
       <c r="K19" s="4">
         <v>145</v>
       </c>
       <c r="L19" s="3">
-        <v>17</v>
-      </c>
-      <c r="M19" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="3"/>
+        <v>87.24999999999919</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -2145,30 +5853,42 @@
         <v>45</v>
       </c>
       <c r="C20" s="3">
-        <v>18</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
       <c r="E20" s="4">
         <v>40</v>
       </c>
       <c r="F20" s="3">
-        <v>18</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>30.500000000000004</v>
+      </c>
       <c r="H20" s="3">
         <v>180</v>
       </c>
       <c r="I20" s="3">
-        <v>18</v>
-      </c>
-      <c r="J20" s="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>45.901639344262307</v>
+      </c>
       <c r="K20" s="4">
         <v>140</v>
       </c>
       <c r="L20" s="3">
-        <v>18</v>
-      </c>
-      <c r="M20" s="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="3"/>
+        <v>68.410714285714292</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -2178,30 +5898,42 @@
         <v>40</v>
       </c>
       <c r="C21" s="3">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>10.526315789473685</v>
+      </c>
       <c r="E21" s="4">
         <v>45</v>
       </c>
       <c r="F21" s="3">
-        <v>19</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>42.499999999999993</v>
+      </c>
       <c r="H21" s="3">
         <v>175</v>
       </c>
       <c r="I21" s="3">
-        <v>19</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>61.176470588235283</v>
+      </c>
       <c r="K21" s="4">
         <v>135</v>
       </c>
       <c r="L21" s="3">
-        <v>19</v>
-      </c>
-      <c r="M21" s="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="3"/>
+        <v>76.298076923076906</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -2211,30 +5943,42 @@
         <v>45</v>
       </c>
       <c r="C22" s="3">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="E22" s="4">
         <v>50</v>
       </c>
       <c r="F22" s="3">
-        <v>20</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="H22" s="3">
         <v>180</v>
       </c>
       <c r="I22" s="3">
-        <v>20</v>
-      </c>
-      <c r="J22" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>71.666666666666671</v>
+      </c>
       <c r="K22" s="4">
         <v>130</v>
       </c>
       <c r="L22" s="3">
-        <v>20</v>
-      </c>
-      <c r="M22" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="3"/>
+        <v>79.069767441860463</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
@@ -2279,16 +6023,12 @@
       <c r="B27" s="4">
         <v>390</v>
       </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4">
         <v>350</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2298,16 +6038,12 @@
       <c r="B28" s="4">
         <v>450</v>
       </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4">
         <v>430</v>
       </c>
-      <c r="F28" s="3">
-        <v>2</v>
-      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2317,16 +6053,12 @@
       <c r="B29" s="4">
         <v>555</v>
       </c>
-      <c r="C29" s="3">
-        <v>3</v>
-      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4">
         <v>490</v>
       </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2336,16 +6068,12 @@
       <c r="B30" s="4">
         <v>645</v>
       </c>
-      <c r="C30" s="3">
-        <v>4</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4">
         <v>580</v>
       </c>
-      <c r="F30" s="3">
-        <v>4</v>
-      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2355,16 +6083,12 @@
       <c r="B31" s="4">
         <v>790</v>
       </c>
-      <c r="C31" s="3">
-        <v>5</v>
-      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4">
         <v>765</v>
       </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2374,16 +6098,12 @@
       <c r="B32" s="4">
         <v>940</v>
       </c>
-      <c r="C32" s="3">
-        <v>6</v>
-      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4">
         <v>910</v>
       </c>
-      <c r="F32" s="3">
-        <v>6</v>
-      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2393,16 +6113,12 @@
       <c r="B33" s="4">
         <v>1090</v>
       </c>
-      <c r="C33" s="3">
-        <v>7</v>
-      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4">
         <v>1050</v>
       </c>
-      <c r="F33" s="3">
-        <v>7</v>
-      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2412,16 +6128,12 @@
       <c r="B34" s="4">
         <v>1215</v>
       </c>
-      <c r="C34" s="3">
-        <v>8</v>
-      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4">
         <v>1235</v>
       </c>
-      <c r="F34" s="3">
-        <v>8</v>
-      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2431,16 +6143,12 @@
       <c r="B35" s="4">
         <v>1380</v>
       </c>
-      <c r="C35" s="3">
-        <v>9</v>
-      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4">
         <v>1370</v>
       </c>
-      <c r="F35" s="3">
-        <v>9</v>
-      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2450,16 +6158,12 @@
       <c r="B36" s="4">
         <v>1535</v>
       </c>
-      <c r="C36" s="3">
-        <v>10</v>
-      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4">
         <v>1450</v>
       </c>
-      <c r="F36" s="3">
-        <v>10</v>
-      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2469,16 +6173,12 @@
       <c r="B37" s="4">
         <v>1665</v>
       </c>
-      <c r="C37" s="3">
-        <v>11</v>
-      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4">
         <v>1670</v>
       </c>
-      <c r="F37" s="3">
-        <v>11</v>
-      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2488,16 +6188,12 @@
       <c r="B38" s="4">
         <v>1810</v>
       </c>
-      <c r="C38" s="3">
-        <v>12</v>
-      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4">
         <v>1620</v>
       </c>
-      <c r="F38" s="3">
-        <v>12</v>
-      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2507,16 +6203,12 @@
       <c r="B39" s="4">
         <v>1975</v>
       </c>
-      <c r="C39" s="3">
-        <v>13</v>
-      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4">
         <v>1770</v>
       </c>
-      <c r="F39" s="3">
-        <v>13</v>
-      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2526,16 +6218,12 @@
       <c r="B40" s="4">
         <v>2095</v>
       </c>
-      <c r="C40" s="3">
-        <v>14</v>
-      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4">
         <v>1910</v>
       </c>
-      <c r="F40" s="3">
-        <v>14</v>
-      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2545,16 +6233,12 @@
       <c r="B41" s="4">
         <v>2220</v>
       </c>
-      <c r="C41" s="3">
-        <v>15</v>
-      </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4">
         <v>2155</v>
       </c>
-      <c r="F41" s="3">
-        <v>15</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2564,16 +6248,12 @@
       <c r="B42" s="4">
         <v>2370</v>
       </c>
-      <c r="C42" s="3">
-        <v>16</v>
-      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4">
         <v>2385</v>
       </c>
-      <c r="F42" s="3">
-        <v>16</v>
-      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2583,16 +6263,12 @@
       <c r="B43" s="4">
         <v>2535</v>
       </c>
-      <c r="C43" s="3">
-        <v>17</v>
-      </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4">
         <v>2410</v>
       </c>
-      <c r="F43" s="3">
-        <v>17</v>
-      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2602,16 +6278,12 @@
       <c r="B44" s="4">
         <v>2670</v>
       </c>
-      <c r="C44" s="3">
-        <v>18</v>
-      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4">
         <v>2500</v>
       </c>
-      <c r="F44" s="3">
-        <v>18</v>
-      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2621,16 +6293,12 @@
       <c r="B45" s="4">
         <v>3620</v>
       </c>
-      <c r="C45" s="3">
-        <v>19</v>
-      </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4">
         <v>2620</v>
       </c>
-      <c r="F45" s="3">
-        <v>19</v>
-      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2640,17 +6308,1115 @@
       <c r="B46" s="4">
         <v>2950</v>
       </c>
-      <c r="C46" s="3">
-        <v>20</v>
-      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4">
         <v>2775</v>
       </c>
-      <c r="F46" s="3">
-        <v>20</v>
-      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>530</v>
+      </c>
+      <c r="B50">
+        <f>1/(A3+1)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>370</v>
+      </c>
+      <c r="B51">
+        <f>1/(A4+1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>270</v>
+      </c>
+      <c r="B52">
+        <f>1/(A5+1)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>210</v>
+      </c>
+      <c r="B53">
+        <f>1/(A6+1)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>170</v>
+      </c>
+      <c r="B54">
+        <f>1/(A7+1)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>140</v>
+      </c>
+      <c r="B55">
+        <f>1/(A8+1)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>125</v>
+      </c>
+      <c r="B56">
+        <f>1/(A9+1)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>110</v>
+      </c>
+      <c r="B57">
+        <f>1/(A10+1)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>95</v>
+      </c>
+      <c r="B58">
+        <f>1/(A11+1)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>80</v>
+      </c>
+      <c r="B59">
+        <f>1/(A12+1)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>75</v>
+      </c>
+      <c r="B60">
+        <f>1/(A13+1)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>70</v>
+      </c>
+      <c r="B61">
+        <f>1/(A14+1)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f>1/(A15+1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <f>1/(A16+1)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>50</v>
+      </c>
+      <c r="B64">
+        <f>1/(A17+1)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>50</v>
+      </c>
+      <c r="B65">
+        <f>1/(A18+1)</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>50</v>
+      </c>
+      <c r="B66">
+        <f>1/(A19+1)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>45</v>
+      </c>
+      <c r="B67">
+        <f>1/(A20+1)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>40</v>
+      </c>
+      <c r="B68">
+        <f>1/(A21+1)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>45</v>
+      </c>
+      <c r="B69">
+        <f>1/(A22+1)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>525</v>
+      </c>
+      <c r="B73">
+        <f>1/(A3+1)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>345</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74:B92" si="4">1/(A4+1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>240</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>190</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>155</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>135</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>110</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>95</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="4"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>70</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>65</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>50</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>60</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>45</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>45</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="4"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>40</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="4"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>40</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="4"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>45</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>50</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="4"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>500</v>
+      </c>
+      <c r="B96">
+        <f>1/(A3+105)</f>
+        <v>9.433962264150943E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>655</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ref="B97:B115" si="5">1/(A4+105)</f>
+        <v>9.3457943925233638E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>600</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="5"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>490</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="5"/>
+        <v>9.1743119266055051E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>405</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="5"/>
+        <v>9.0909090909090905E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>350</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="5"/>
+        <v>9.0090090090090089E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>305</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="5"/>
+        <v>8.9285714285714281E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>275</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="5"/>
+        <v>8.8495575221238937E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>250</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="5"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>235</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="5"/>
+        <v>8.6956521739130436E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>215</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="5"/>
+        <v>8.6206896551724137E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>205</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="5"/>
+        <v>8.5470085470085479E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>200</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="5"/>
+        <v>8.4745762711864406E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>190</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="5"/>
+        <v>8.4033613445378148E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>185</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>180</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="5"/>
+        <v>8.2644628099173556E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>175</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="5"/>
+        <v>8.1967213114754103E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>180</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="5"/>
+        <v>8.130081300813009E-3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>175</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="5"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>180</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>565</v>
+      </c>
+      <c r="B119">
+        <f>1/(A3+75)</f>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>667</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ref="B120:B138" si="6">1/(A4+75)</f>
+        <v>1.2987012987012988E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>625</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="6"/>
+        <v>1.282051282051282E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>500</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="6"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>415</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="6"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>340</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="6"/>
+        <v>1.2345679012345678E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>305</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="6"/>
+        <v>1.2195121951219513E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>275</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="6"/>
+        <v>1.2048192771084338E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>245</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="6"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>225</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="6"/>
+        <v>1.1764705882352941E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>205</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="6"/>
+        <v>1.1627906976744186E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>190</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="6"/>
+        <v>1.1494252873563218E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>180</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="6"/>
+        <v>1.1363636363636364E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>170</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="6"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>160</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="6"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>150</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="6"/>
+        <v>1.098901098901099E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>145</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="6"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>140</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="6"/>
+        <v>1.0752688172043012E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="6"/>
+        <v>1.0638297872340425E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>130</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="6"/>
+        <v>1.0526315789473684E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>390</v>
+      </c>
+      <c r="B142">
+        <f>1/(A142+1)</f>
+        <v>2.5575447570332483E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>450</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ref="B143:B161" si="7">1/(A143+1)</f>
+        <v>2.2172949002217295E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <v>555</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="7"/>
+        <v>1.7985611510791368E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>645</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="7"/>
+        <v>1.5479876160990713E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>790</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="7"/>
+        <v>1.2642225031605564E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>940</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="7"/>
+        <v>1.0626992561105207E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>1090</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="7"/>
+        <v>9.1659028414298811E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>1215</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="7"/>
+        <v>8.2236842105263153E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>1380</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="7"/>
+        <v>7.2411296162201298E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>1535</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="7"/>
+        <v>6.5104166666666663E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>1665</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="7"/>
+        <v>6.0024009603841532E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>1810</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="7"/>
+        <v>5.5218111540585317E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>1975</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="7"/>
+        <v>5.0607287449392713E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>2095</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="7"/>
+        <v>4.7709923664122136E-4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>2220</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="7"/>
+        <v>4.5024763619990995E-4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>2370</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="7"/>
+        <v>4.2176296921130323E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>2535</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="7"/>
+        <v>3.9432176656151418E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>2670</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="7"/>
+        <v>3.7439161362785476E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
+        <v>3620</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="7"/>
+        <v>2.7616680475006904E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
+        <v>2950</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="7"/>
+        <v>3.3886818027787193E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>350</v>
+      </c>
+      <c r="B165">
+        <f>1/(A165+1)</f>
+        <v>2.8490028490028491E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>430</v>
+      </c>
+      <c r="B166">
+        <f t="shared" ref="B166:B184" si="8">1/(A166+1)</f>
+        <v>2.3201856148491878E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
+        <v>490</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="8"/>
+        <v>2.0366598778004071E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>580</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="8"/>
+        <v>1.7211703958691911E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
+        <v>765</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="8"/>
+        <v>1.3054830287206266E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="4">
+        <v>910</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="8"/>
+        <v>1.0976948408342481E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>1050</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="8"/>
+        <v>9.5147478591817321E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
+        <v>1235</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="8"/>
+        <v>8.090614886731392E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>1370</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="8"/>
+        <v>7.2939460247994166E-4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="4">
+        <v>1450</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="8"/>
+        <v>6.8917987594762232E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="4">
+        <v>1670</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="8"/>
+        <v>5.9844404548174744E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="4">
+        <v>1620</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="8"/>
+        <v>6.1690314620604567E-4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
+        <v>1770</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="8"/>
+        <v>5.6465273856578201E-4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="4">
+        <v>1910</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="8"/>
+        <v>5.2328623757195189E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="4">
+        <v>2155</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="8"/>
+        <v>4.6382189239332097E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="4">
+        <v>2385</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="8"/>
+        <v>4.1911148365465214E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="4">
+        <v>2410</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="8"/>
+        <v>4.1476565740356696E-4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="4">
+        <v>2500</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="8"/>
+        <v>3.9984006397441024E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="4">
+        <v>2620</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="8"/>
+        <v>3.8153376573826786E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="4">
+        <v>2775</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="8"/>
+        <v>3.6023054755043225E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab02/Code/SensorCalibration/SensorData.xlsx
+++ b/Lab02/Code/SensorCalibration/SensorData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adairdg\Documents\Classes\ECE-425-Mobile-Robotics\Lab02\Code\SensorCalibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA86C4-4655-4FF3-B362-704D42A6408C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381A6B93-079F-40AE-9B31-B2765A916B93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{7B5C36B3-28DB-4FDE-A3F1-AA54B0BA1D69}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Acutal Inches</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Inches = 285714/(R+2257) - 102</t>
+  </si>
+  <si>
+    <t>Inches = 568181 / (R+11136) - 50</t>
+  </si>
+  <si>
+    <t>Inches = 479616 / (R + 9520) - 50</t>
   </si>
 </sst>
 </file>
@@ -2323,6 +2329,994 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1569553805774279E-2"/>
+                  <c:y val="-0.14985272674249053"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$142:$A$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2535</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$142:$B$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8867924528301886E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8518518518518517E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8181818181818181E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7857142857142856E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7543859649122806E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7241379310344827E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6949152542372881E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6393442622950821E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6129032258064516E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5873015873015872E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5384615384615385E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5151515151515152E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4925373134328358E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4705882352941176E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4492753623188406E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4285714285714285E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37C0-4E25-B394-F093F26CD058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="550860984"/>
+        <c:axId val="550860328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="550860984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550860328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="550860328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550860984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3167979002624668E-2"/>
+                  <c:y val="-0.72320902595508896"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$165:$A$184</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2385</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2410</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$165:$B$184</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8867924528301886E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8518518518518517E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8181818181818181E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7857142857142856E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7543859649122806E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7241379310344827E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6949152542372881E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6393442622950821E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6129032258064516E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5873015873015872E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5384615384615385E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5151515151515152E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4925373134328358E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4705882352941176E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4492753623188406E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4285714285714285E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB8D-435B-AC19-C9DC932ADB23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="441244640"/>
+        <c:axId val="441245624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="441244640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441245624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="441245624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441244640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2483,6 +3477,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4032,6 +5106,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4688,6 +6794,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801EA181-7EE9-45E8-8747-8B7E85EF509E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA854EF3-F850-4ABC-BC47-017AD69B2128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4996,7 +7174,7 @@
   <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6023,13 +8201,23 @@
       <c r="B27" s="4">
         <v>390</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <f>100*ABS(C27-A27)/A27</f>
+        <v>100</v>
+      </c>
       <c r="E27" s="4">
         <v>350</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4">
+        <f>100*ABS(F27-A27)/A27</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -6038,13 +8226,23 @@
       <c r="B28" s="4">
         <v>450</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28:D46" si="4">100*ABS(C28-A28)/A28</f>
+        <v>0</v>
+      </c>
       <c r="E28" s="4">
         <v>430</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" ref="G28:G46" si="5">100*ABS(F28-A28)/A28</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -6053,13 +8251,23 @@
       <c r="B29" s="4">
         <v>555</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E29" s="4">
         <v>490</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -6068,13 +8276,23 @@
       <c r="B30" s="4">
         <v>645</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E30" s="4">
         <v>580</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
@@ -6083,13 +8301,23 @@
       <c r="B31" s="4">
         <v>790</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="3">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E31" s="4">
         <v>765</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
@@ -6098,13 +8326,23 @@
       <c r="B32" s="4">
         <v>940</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="3">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E32" s="4">
         <v>910</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="5"/>
+        <v>16.666666666666668</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -6113,13 +8351,23 @@
       <c r="B33" s="4">
         <v>1090</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="3">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E33" s="4">
         <v>1050</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="3">
+        <v>6</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="5"/>
+        <v>14.285714285714286</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -6128,13 +8376,23 @@
       <c r="B34" s="4">
         <v>1215</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
+      <c r="C34" s="3">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E34" s="4">
         <v>1235</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="3">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
@@ -6143,13 +8401,23 @@
       <c r="B35" s="4">
         <v>1380</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="3">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E35" s="4">
         <v>1370</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="3">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="5"/>
+        <v>22.222222222222221</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
@@ -6158,13 +8426,23 @@
       <c r="B36" s="4">
         <v>1535</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="3">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E36" s="4">
         <v>1450</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -6173,13 +8451,23 @@
       <c r="B37" s="4">
         <v>1665</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="3">
+        <v>11</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E37" s="4">
         <v>1670</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
+      <c r="F37" s="3">
+        <v>8</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>27.272727272727273</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
@@ -6188,13 +8476,23 @@
       <c r="B38" s="4">
         <v>1810</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="3">
+        <v>12</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E38" s="4">
         <v>1620</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
+      <c r="F38" s="3">
+        <v>9</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
@@ -6203,13 +8501,23 @@
       <c r="B39" s="4">
         <v>1975</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="3">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E39" s="4">
         <v>1770</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
+      <c r="F39" s="3">
+        <v>10</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="5"/>
+        <v>23.076923076923077</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -6218,13 +8526,23 @@
       <c r="B40" s="4">
         <v>2095</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5714285714285716</v>
+      </c>
       <c r="E40" s="4">
         <v>1910</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
+      <c r="F40" s="3">
+        <v>10</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="5"/>
+        <v>28.571428571428573</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -6233,13 +8551,23 @@
       <c r="B41" s="4">
         <v>2220</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="3">
+        <v>16</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="4"/>
+        <v>6.666666666666667</v>
+      </c>
       <c r="E41" s="4">
         <v>2155</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
+      <c r="F41" s="3">
+        <v>12</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
@@ -6248,13 +8576,23 @@
       <c r="B42" s="4">
         <v>2370</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
+      <c r="C42" s="3">
+        <v>17</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
       <c r="E42" s="4">
         <v>2385</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
+      <c r="F42" s="3">
+        <v>13</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="5"/>
+        <v>18.75</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -6263,13 +8601,23 @@
       <c r="B43" s="4">
         <v>2535</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="3">
+        <v>19</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="4"/>
+        <v>11.764705882352942</v>
+      </c>
       <c r="E43" s="4">
         <v>2410</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
+      <c r="F43" s="3">
+        <v>16</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="5"/>
+        <v>5.882352941176471</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
@@ -6278,13 +8626,23 @@
       <c r="B44" s="4">
         <v>2670</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
+      <c r="C44" s="3">
+        <v>20</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="4"/>
+        <v>11.111111111111111</v>
+      </c>
       <c r="E44" s="4">
         <v>2500</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
+      <c r="F44" s="3">
+        <v>17</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
@@ -6293,13 +8651,23 @@
       <c r="B45" s="4">
         <v>3620</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
+      <c r="C45" s="3">
+        <v>22</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
       <c r="E45" s="4">
         <v>2620</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
+      <c r="F45" s="3">
+        <v>18</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2631578947368425</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
@@ -6308,20 +8676,30 @@
       <c r="B46" s="4">
         <v>2950</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
+      <c r="C46" s="3">
+        <v>23</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
       <c r="E46" s="4">
         <v>2775</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
+      <c r="F46" s="3">
+        <v>18</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>530</v>
       </c>
       <c r="B50">
-        <f>1/(A3+1)</f>
+        <f t="shared" ref="B50:B69" si="6">1/(A3+1)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -6330,7 +8708,7 @@
         <v>370</v>
       </c>
       <c r="B51">
-        <f>1/(A4+1)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -6339,7 +8717,7 @@
         <v>270</v>
       </c>
       <c r="B52">
-        <f>1/(A5+1)</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
     </row>
@@ -6348,7 +8726,7 @@
         <v>210</v>
       </c>
       <c r="B53">
-        <f>1/(A6+1)</f>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
@@ -6357,7 +8735,7 @@
         <v>170</v>
       </c>
       <c r="B54">
-        <f>1/(A7+1)</f>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -6366,7 +8744,7 @@
         <v>140</v>
       </c>
       <c r="B55">
-        <f>1/(A8+1)</f>
+        <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -6375,7 +8753,7 @@
         <v>125</v>
       </c>
       <c r="B56">
-        <f>1/(A9+1)</f>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
     </row>
@@ -6384,7 +8762,7 @@
         <v>110</v>
       </c>
       <c r="B57">
-        <f>1/(A10+1)</f>
+        <f t="shared" si="6"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -6393,7 +8771,7 @@
         <v>95</v>
       </c>
       <c r="B58">
-        <f>1/(A11+1)</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
@@ -6402,7 +8780,7 @@
         <v>80</v>
       </c>
       <c r="B59">
-        <f>1/(A12+1)</f>
+        <f t="shared" si="6"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
@@ -6411,7 +8789,7 @@
         <v>75</v>
       </c>
       <c r="B60">
-        <f>1/(A13+1)</f>
+        <f t="shared" si="6"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -6420,7 +8798,7 @@
         <v>70</v>
       </c>
       <c r="B61">
-        <f>1/(A14+1)</f>
+        <f t="shared" si="6"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -6429,7 +8807,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <f>1/(A15+1)</f>
+        <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
@@ -6438,7 +8816,7 @@
         <v>50</v>
       </c>
       <c r="B63">
-        <f>1/(A16+1)</f>
+        <f t="shared" si="6"/>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -6447,7 +8825,7 @@
         <v>50</v>
       </c>
       <c r="B64">
-        <f>1/(A17+1)</f>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -6456,7 +8834,7 @@
         <v>50</v>
       </c>
       <c r="B65">
-        <f>1/(A18+1)</f>
+        <f t="shared" si="6"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -6465,7 +8843,7 @@
         <v>50</v>
       </c>
       <c r="B66">
-        <f>1/(A19+1)</f>
+        <f t="shared" si="6"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
@@ -6474,7 +8852,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <f>1/(A20+1)</f>
+        <f t="shared" si="6"/>
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
@@ -6483,7 +8861,7 @@
         <v>40</v>
       </c>
       <c r="B68">
-        <f>1/(A21+1)</f>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="C68" t="s">
@@ -6495,7 +8873,7 @@
         <v>45</v>
       </c>
       <c r="B69">
-        <f>1/(A22+1)</f>
+        <f t="shared" si="6"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
@@ -6518,7 +8896,7 @@
         <v>345</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:B92" si="4">1/(A4+1)</f>
+        <f t="shared" ref="B74:B92" si="7">1/(A4+1)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -6527,7 +8905,7 @@
         <v>240</v>
       </c>
       <c r="B75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
     </row>
@@ -6536,7 +8914,7 @@
         <v>190</v>
       </c>
       <c r="B76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
@@ -6545,7 +8923,7 @@
         <v>155</v>
       </c>
       <c r="B77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -6554,7 +8932,7 @@
         <v>135</v>
       </c>
       <c r="B78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -6563,7 +8941,7 @@
         <v>110</v>
       </c>
       <c r="B79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
     </row>
@@ -6572,7 +8950,7 @@
         <v>95</v>
       </c>
       <c r="B80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -6581,7 +8959,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
     </row>
@@ -6590,7 +8968,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
@@ -6599,7 +8977,7 @@
         <v>70</v>
       </c>
       <c r="B83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -6608,7 +8986,7 @@
         <v>65</v>
       </c>
       <c r="B84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -6617,7 +8995,7 @@
         <v>50</v>
       </c>
       <c r="B85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
@@ -6626,7 +9004,7 @@
         <v>60</v>
       </c>
       <c r="B86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -6635,7 +9013,7 @@
         <v>45</v>
       </c>
       <c r="B87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -6644,7 +9022,7 @@
         <v>45</v>
       </c>
       <c r="B88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -6653,7 +9031,7 @@
         <v>40</v>
       </c>
       <c r="B89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
@@ -6662,7 +9040,7 @@
         <v>40</v>
       </c>
       <c r="B90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="C90" t="s">
@@ -6674,7 +9052,7 @@
         <v>45</v>
       </c>
       <c r="B91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
     </row>
@@ -6683,7 +9061,7 @@
         <v>50</v>
       </c>
       <c r="B92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
@@ -6706,7 +9084,7 @@
         <v>655</v>
       </c>
       <c r="B97">
-        <f t="shared" ref="B97:B115" si="5">1/(A4+105)</f>
+        <f t="shared" ref="B97:B115" si="8">1/(A4+105)</f>
         <v>9.3457943925233638E-3</v>
       </c>
     </row>
@@ -6715,7 +9093,7 @@
         <v>600</v>
       </c>
       <c r="B98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.2592592592592587E-3</v>
       </c>
     </row>
@@ -6724,7 +9102,7 @@
         <v>490</v>
       </c>
       <c r="B99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.1743119266055051E-3</v>
       </c>
     </row>
@@ -6733,7 +9111,7 @@
         <v>405</v>
       </c>
       <c r="B100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.0909090909090905E-3</v>
       </c>
     </row>
@@ -6742,7 +9120,7 @@
         <v>350</v>
       </c>
       <c r="B101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.0090090090090089E-3</v>
       </c>
     </row>
@@ -6751,7 +9129,7 @@
         <v>305</v>
       </c>
       <c r="B102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.9285714285714281E-3</v>
       </c>
     </row>
@@ -6760,7 +9138,7 @@
         <v>275</v>
       </c>
       <c r="B103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.8495575221238937E-3</v>
       </c>
     </row>
@@ -6769,7 +9147,7 @@
         <v>250</v>
       </c>
       <c r="B104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.771929824561403E-3</v>
       </c>
     </row>
@@ -6778,7 +9156,7 @@
         <v>235</v>
       </c>
       <c r="B105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.6956521739130436E-3</v>
       </c>
     </row>
@@ -6787,7 +9165,7 @@
         <v>215</v>
       </c>
       <c r="B106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.6206896551724137E-3</v>
       </c>
     </row>
@@ -6796,7 +9174,7 @@
         <v>205</v>
       </c>
       <c r="B107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.5470085470085479E-3</v>
       </c>
     </row>
@@ -6805,7 +9183,7 @@
         <v>200</v>
       </c>
       <c r="B108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.4745762711864406E-3</v>
       </c>
     </row>
@@ -6814,7 +9192,7 @@
         <v>190</v>
       </c>
       <c r="B109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.4033613445378148E-3</v>
       </c>
     </row>
@@ -6823,7 +9201,7 @@
         <v>185</v>
       </c>
       <c r="B110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
@@ -6832,7 +9210,7 @@
         <v>180</v>
       </c>
       <c r="B111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.2644628099173556E-3</v>
       </c>
     </row>
@@ -6841,7 +9219,7 @@
         <v>175</v>
       </c>
       <c r="B112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.1967213114754103E-3</v>
       </c>
     </row>
@@ -6850,7 +9228,7 @@
         <v>180</v>
       </c>
       <c r="B113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.130081300813009E-3</v>
       </c>
       <c r="C113" t="s">
@@ -6862,7 +9240,7 @@
         <v>175</v>
       </c>
       <c r="B114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.0645161290322578E-3</v>
       </c>
     </row>
@@ -6871,7 +9249,7 @@
         <v>180</v>
       </c>
       <c r="B115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -6889,7 +9267,7 @@
         <v>667</v>
       </c>
       <c r="B120">
-        <f t="shared" ref="B120:B138" si="6">1/(A4+75)</f>
+        <f t="shared" ref="B120:B138" si="9">1/(A4+75)</f>
         <v>1.2987012987012988E-2</v>
       </c>
     </row>
@@ -6898,7 +9276,7 @@
         <v>625</v>
       </c>
       <c r="B121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.282051282051282E-2</v>
       </c>
     </row>
@@ -6907,7 +9285,7 @@
         <v>500</v>
       </c>
       <c r="B122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2658227848101266E-2</v>
       </c>
     </row>
@@ -6916,7 +9294,7 @@
         <v>415</v>
       </c>
       <c r="B123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
@@ -6925,7 +9303,7 @@
         <v>340</v>
       </c>
       <c r="B124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2345679012345678E-2</v>
       </c>
     </row>
@@ -6934,7 +9312,7 @@
         <v>305</v>
       </c>
       <c r="B125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2195121951219513E-2</v>
       </c>
     </row>
@@ -6943,7 +9321,7 @@
         <v>275</v>
       </c>
       <c r="B126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2048192771084338E-2</v>
       </c>
     </row>
@@ -6952,7 +9330,7 @@
         <v>245</v>
       </c>
       <c r="B127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1904761904761904E-2</v>
       </c>
     </row>
@@ -6961,7 +9339,7 @@
         <v>225</v>
       </c>
       <c r="B128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1764705882352941E-2</v>
       </c>
     </row>
@@ -6970,7 +9348,7 @@
         <v>205</v>
       </c>
       <c r="B129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1627906976744186E-2</v>
       </c>
     </row>
@@ -6979,7 +9357,7 @@
         <v>190</v>
       </c>
       <c r="B130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1494252873563218E-2</v>
       </c>
     </row>
@@ -6988,7 +9366,7 @@
         <v>180</v>
       </c>
       <c r="B131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1363636363636364E-2</v>
       </c>
     </row>
@@ -6997,7 +9375,7 @@
         <v>170</v>
       </c>
       <c r="B132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1235955056179775E-2</v>
       </c>
     </row>
@@ -7006,7 +9384,7 @@
         <v>160</v>
       </c>
       <c r="B133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
@@ -7015,7 +9393,7 @@
         <v>150</v>
       </c>
       <c r="B134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.098901098901099E-2</v>
       </c>
     </row>
@@ -7024,7 +9402,7 @@
         <v>145</v>
       </c>
       <c r="B135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0869565217391304E-2</v>
       </c>
       <c r="C135" t="s">
@@ -7036,7 +9414,7 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0752688172043012E-2</v>
       </c>
     </row>
@@ -7045,7 +9423,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0638297872340425E-2</v>
       </c>
     </row>
@@ -7054,7 +9432,7 @@
         <v>130</v>
       </c>
       <c r="B138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0526315789473684E-2</v>
       </c>
     </row>
@@ -7063,8 +9441,8 @@
         <v>390</v>
       </c>
       <c r="B142">
-        <f>1/(A142+1)</f>
-        <v>2.5575447570332483E-3</v>
+        <f>1/(A3+50)</f>
+        <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -7072,8 +9450,8 @@
         <v>450</v>
       </c>
       <c r="B143">
-        <f t="shared" ref="B143:B161" si="7">1/(A143+1)</f>
-        <v>2.2172949002217295E-3</v>
+        <f t="shared" ref="B143:B161" si="10">1/(A4+50)</f>
+        <v>1.9230769230769232E-2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -7081,152 +9459,155 @@
         <v>555</v>
       </c>
       <c r="B144">
-        <f t="shared" si="7"/>
-        <v>1.7985611510791368E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.8867924528301886E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>645</v>
       </c>
       <c r="B145">
-        <f t="shared" si="7"/>
-        <v>1.5479876160990713E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>790</v>
       </c>
       <c r="B146">
-        <f t="shared" si="7"/>
-        <v>1.2642225031605564E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>940</v>
       </c>
       <c r="B147">
-        <f t="shared" si="7"/>
-        <v>1.0626992561105207E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>1090</v>
       </c>
       <c r="B148">
-        <f t="shared" si="7"/>
-        <v>9.1659028414298811E-4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>1215</v>
       </c>
       <c r="B149">
-        <f t="shared" si="7"/>
-        <v>8.2236842105263153E-4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.7241379310344827E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>1380</v>
       </c>
       <c r="B150">
-        <f t="shared" si="7"/>
-        <v>7.2411296162201298E-4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.6949152542372881E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>1535</v>
       </c>
       <c r="B151">
-        <f t="shared" si="7"/>
-        <v>6.5104166666666663E-4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>1665</v>
       </c>
       <c r="B152">
-        <f t="shared" si="7"/>
-        <v>6.0024009603841532E-4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.6393442622950821E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>1810</v>
       </c>
       <c r="B153">
-        <f t="shared" si="7"/>
-        <v>5.5218111540585317E-4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>1975</v>
       </c>
       <c r="B154">
-        <f t="shared" si="7"/>
-        <v>5.0607287449392713E-4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.5873015873015872E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>2095</v>
       </c>
       <c r="B155">
-        <f t="shared" si="7"/>
-        <v>4.7709923664122136E-4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>2220</v>
       </c>
       <c r="B156">
-        <f t="shared" si="7"/>
-        <v>4.5024763619990995E-4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>2370</v>
       </c>
       <c r="B157">
-        <f t="shared" si="7"/>
-        <v>4.2176296921130323E-4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>2535</v>
       </c>
       <c r="B158">
-        <f t="shared" si="7"/>
-        <v>3.9432176656151418E-4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>2670</v>
       </c>
       <c r="B159">
-        <f t="shared" si="7"/>
-        <v>3.7439161362785476E-4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>3620</v>
       </c>
       <c r="B160">
-        <f t="shared" si="7"/>
-        <v>2.7616680475006904E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.4492753623188406E-2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -7234,8 +9615,8 @@
         <v>2950</v>
       </c>
       <c r="B161">
-        <f t="shared" si="7"/>
-        <v>3.3886818027787193E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.4285714285714285E-2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -7243,8 +9624,8 @@
         <v>350</v>
       </c>
       <c r="B165">
-        <f>1/(A165+1)</f>
-        <v>2.8490028490028491E-3</v>
+        <f>1/(A3+50)</f>
+        <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -7252,8 +9633,8 @@
         <v>430</v>
       </c>
       <c r="B166">
-        <f t="shared" ref="B166:B184" si="8">1/(A166+1)</f>
-        <v>2.3201856148491878E-3</v>
+        <f t="shared" ref="B166:B184" si="11">1/(A4+50)</f>
+        <v>1.9230769230769232E-2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -7261,8 +9642,8 @@
         <v>490</v>
       </c>
       <c r="B167">
-        <f t="shared" si="8"/>
-        <v>2.0366598778004071E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.8867924528301886E-2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -7270,8 +9651,8 @@
         <v>580</v>
       </c>
       <c r="B168">
-        <f t="shared" si="8"/>
-        <v>1.7211703958691911E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.8518518518518517E-2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -7279,8 +9660,8 @@
         <v>765</v>
       </c>
       <c r="B169">
-        <f t="shared" si="8"/>
-        <v>1.3054830287206266E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.8181818181818181E-2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -7288,8 +9669,8 @@
         <v>910</v>
       </c>
       <c r="B170">
-        <f t="shared" si="8"/>
-        <v>1.0976948408342481E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.7857142857142856E-2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -7297,8 +9678,8 @@
         <v>1050</v>
       </c>
       <c r="B171">
-        <f t="shared" si="8"/>
-        <v>9.5147478591817321E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -7306,8 +9687,8 @@
         <v>1235</v>
       </c>
       <c r="B172">
-        <f t="shared" si="8"/>
-        <v>8.090614886731392E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.7241379310344827E-2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -7315,8 +9696,8 @@
         <v>1370</v>
       </c>
       <c r="B173">
-        <f t="shared" si="8"/>
-        <v>7.2939460247994166E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.6949152542372881E-2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -7324,8 +9705,8 @@
         <v>1450</v>
       </c>
       <c r="B174">
-        <f t="shared" si="8"/>
-        <v>6.8917987594762232E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -7333,8 +9714,8 @@
         <v>1670</v>
       </c>
       <c r="B175">
-        <f t="shared" si="8"/>
-        <v>5.9844404548174744E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.6393442622950821E-2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -7342,80 +9723,83 @@
         <v>1620</v>
       </c>
       <c r="B176">
-        <f t="shared" si="8"/>
-        <v>6.1690314620604567E-4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>1770</v>
       </c>
       <c r="B177">
-        <f t="shared" si="8"/>
-        <v>5.6465273856578201E-4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1.5873015873015872E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>1910</v>
       </c>
       <c r="B178">
-        <f t="shared" si="8"/>
-        <v>5.2328623757195189E-4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>2155</v>
       </c>
       <c r="B179">
-        <f t="shared" si="8"/>
-        <v>4.6382189239332097E-4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>2385</v>
       </c>
       <c r="B180">
-        <f t="shared" si="8"/>
-        <v>4.1911148365465214E-4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>2410</v>
       </c>
       <c r="B181">
-        <f t="shared" si="8"/>
-        <v>4.1476565740356696E-4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>2500</v>
       </c>
       <c r="B182">
-        <f t="shared" si="8"/>
-        <v>3.9984006397441024E-4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>2620</v>
       </c>
       <c r="B183">
-        <f t="shared" si="8"/>
-        <v>3.8153376573826786E-4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>2775</v>
       </c>
       <c r="B184">
-        <f t="shared" si="8"/>
-        <v>3.6023054755043225E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.4285714285714285E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lab02/Code/SensorCalibration/SensorData.xlsx
+++ b/Lab02/Code/SensorCalibration/SensorData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adairdg\Documents\Classes\ECE-425-Mobile-Robotics\Lab02\Code\SensorCalibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381A6B93-079F-40AE-9B31-B2765A916B93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67760D13-4BB5-404C-B680-B1B70173E5BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{7B5C36B3-28DB-4FDE-A3F1-AA54B0BA1D69}"/>
   </bookViews>
@@ -207,6 +207,15 @@
               <a:t>Front IR Linerized</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>k = 1</a:t>
+            </a:r>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -245,10 +254,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6775371828521436E-2"/>
-          <c:y val="0.19486111111111112"/>
-          <c:w val="0.87755796150481191"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="0.11455314960629923"/>
+          <c:y val="0.17823616810990894"/>
+          <c:w val="0.84978018372703412"/>
+          <c:h val="0.68348125748620581"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -293,6 +302,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.0867891513560805E-2"/>
+                  <c:y val="-0.21599708078884156"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -521,7 +536,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Range</a:t>
+                  <a:t>Sensor Value</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -638,11 +653,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>1/(Range</a:t>
+                  <a:t>1/(Sensor</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> + 1)</a:t>
+                  <a:t> Value + k)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -778,6 +793,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rear IR Sensor</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>k = 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1060,6 +1109,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sensor Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1152,6 +1226,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>1/(Sensor Value + k)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1282,6 +1386,47 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Left IR Sensor</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>k = 105 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1598,6 +1743,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sensor Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1690,6 +1860,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>1/(Sensor Value + k)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1820,6 +2020,47 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Right IR Sensor</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>k = 75</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2122,6 +2363,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sensor Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2214,6 +2480,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>1/(Sensor Value + k)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2344,6 +2640,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Left Sonar</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>k = 50</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2646,6 +2976,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sensor value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2738,6 +3093,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>1/(Sensor Value + k)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2868,6 +3253,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Right Sonar</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>k = 50</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3169,6 +3588,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sensor value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3231,6 +3705,102 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>1/(Sensor Value + k)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.13004629629629633"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6665,8 +7235,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7173,8 +7743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07996165-70A0-4432-807A-FF459E728AE0}">
   <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
